--- a/INTERMEDIATE 2/Book1.xlsx
+++ b/INTERMEDIATE 2/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\EXCEL\INTERMEDIATE 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\EXCEL\git\Excel\INTERMEDIATE 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5492B821-DD63-4E4B-8800-9FB7E231E265}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B261F-6EF0-40DD-A4D7-8B8DB1647880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{8CDEC837-72E8-4288-8B14-964FF5ED7B00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{8CDEC837-72E8-4288-8B14-964FF5ED7B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>dummy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +385,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>